--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3494.682915076969</v>
+        <v>3640.859440731965</v>
       </c>
       <c r="AB2" t="n">
-        <v>4781.579338937704</v>
+        <v>4981.584510192055</v>
       </c>
       <c r="AC2" t="n">
-        <v>4325.232117818061</v>
+        <v>4506.149076236909</v>
       </c>
       <c r="AD2" t="n">
-        <v>3494682.91507697</v>
+        <v>3640859.440731965</v>
       </c>
       <c r="AE2" t="n">
-        <v>4781579.338937704</v>
+        <v>4981584.510192055</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.929627014048207e-07</v>
+        <v>1.282162425233107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.9287109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4325232.117818061</v>
+        <v>4506149.076236909</v>
       </c>
     </row>
     <row r="3">
@@ -3133,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1637.011164366046</v>
+        <v>1734.405287566327</v>
       </c>
       <c r="AB3" t="n">
-        <v>2239.830894921175</v>
+        <v>2373.089831009269</v>
       </c>
       <c r="AC3" t="n">
-        <v>2026.064577932303</v>
+        <v>2146.60546819024</v>
       </c>
       <c r="AD3" t="n">
-        <v>1637011.164366046</v>
+        <v>1734405.287566327</v>
       </c>
       <c r="AE3" t="n">
-        <v>2239830.894921175</v>
+        <v>2373089.831009269</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092942789362009e-06</v>
+        <v>2.022230308512361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.90462239583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2026064.577932303</v>
+        <v>2146605.46819024</v>
       </c>
     </row>
     <row r="4">
@@ -3239,28 +3239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1313.026601551692</v>
+        <v>1386.11495388774</v>
       </c>
       <c r="AB4" t="n">
-        <v>1796.540922888428</v>
+        <v>1896.543630985146</v>
       </c>
       <c r="AC4" t="n">
-        <v>1625.081578668977</v>
+        <v>1715.540168659626</v>
       </c>
       <c r="AD4" t="n">
-        <v>1313026.601551692</v>
+        <v>1386114.95388774</v>
       </c>
       <c r="AE4" t="n">
-        <v>1796540.922888428</v>
+        <v>1896543.630985146</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.248397235311757e-06</v>
+        <v>2.309861733736441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1728515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1625081.578668977</v>
+        <v>1715540.168659626</v>
       </c>
     </row>
     <row r="5">
@@ -3345,28 +3345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1157.229226973105</v>
+        <v>1230.232238454582</v>
       </c>
       <c r="AB5" t="n">
-        <v>1583.372081694932</v>
+        <v>1683.258022669452</v>
       </c>
       <c r="AC5" t="n">
-        <v>1432.257272494641</v>
+        <v>1522.610239453352</v>
       </c>
       <c r="AD5" t="n">
-        <v>1157229.226973105</v>
+        <v>1230232.238454582</v>
       </c>
       <c r="AE5" t="n">
-        <v>1583372.081694932</v>
+        <v>1683258.022669452</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.332239933487657e-06</v>
+        <v>2.464992676590029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1432257.272494641</v>
+        <v>1522610.239453352</v>
       </c>
     </row>
     <row r="6">
@@ -3451,28 +3451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1056.671601721821</v>
+        <v>1129.759864549318</v>
       </c>
       <c r="AB6" t="n">
-        <v>1445.784702536797</v>
+        <v>1545.787288163966</v>
       </c>
       <c r="AC6" t="n">
-        <v>1307.801039698259</v>
+        <v>1398.259518907681</v>
       </c>
       <c r="AD6" t="n">
-        <v>1056671.601721821</v>
+        <v>1129759.864549318</v>
       </c>
       <c r="AE6" t="n">
-        <v>1445784.702536797</v>
+        <v>1545787.288163966</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.384058082137572e-06</v>
+        <v>2.560869818331389e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.97981770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1307801.039698259</v>
+        <v>1398259.518907681</v>
       </c>
     </row>
     <row r="7">
@@ -3557,28 +3557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>989.2889770333437</v>
+        <v>1062.377239860841</v>
       </c>
       <c r="AB7" t="n">
-        <v>1353.588822726425</v>
+        <v>1453.591408353594</v>
       </c>
       <c r="AC7" t="n">
-        <v>1224.404205259258</v>
+        <v>1314.862684468681</v>
       </c>
       <c r="AD7" t="n">
-        <v>989288.9770333437</v>
+        <v>1062377.239860841</v>
       </c>
       <c r="AE7" t="n">
-        <v>1353588.822726425</v>
+        <v>1453591.408353594</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.419817273007694e-06</v>
+        <v>2.627033683713265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1224404.205259258</v>
+        <v>1314862.684468681</v>
       </c>
     </row>
     <row r="8">
@@ -3663,28 +3663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>943.0190825416805</v>
+        <v>1004.082426464643</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290.280311799252</v>
+        <v>1373.829872879256</v>
       </c>
       <c r="AC8" t="n">
-        <v>1167.137769760922</v>
+        <v>1242.713477993996</v>
       </c>
       <c r="AD8" t="n">
-        <v>943019.0825416805</v>
+        <v>1004082.426464643</v>
       </c>
       <c r="AE8" t="n">
-        <v>1290280.311799252</v>
+        <v>1373829.872879256</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439517506098023e-06</v>
+        <v>2.663484272735656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.556640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1167137.769760922</v>
+        <v>1242713.477993996</v>
       </c>
     </row>
     <row r="9">
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>940.4080622590078</v>
+        <v>1001.47140618197</v>
       </c>
       <c r="AB9" t="n">
-        <v>1286.707798658415</v>
+        <v>1370.257359738418</v>
       </c>
       <c r="AC9" t="n">
-        <v>1163.906212260192</v>
+        <v>1239.481920493266</v>
       </c>
       <c r="AD9" t="n">
-        <v>940408.0622590078</v>
+        <v>1001471.40618197</v>
       </c>
       <c r="AE9" t="n">
-        <v>1286707.798658415</v>
+        <v>1370257.359738418</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44241185313973e-06</v>
+        <v>2.668839572544633e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.53548177083333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1163906.212260192</v>
+        <v>1239481.920493266</v>
       </c>
     </row>
     <row r="10">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>944.3885225999121</v>
+        <v>1005.451866522875</v>
       </c>
       <c r="AB10" t="n">
-        <v>1292.154040102356</v>
+        <v>1375.70360118236</v>
       </c>
       <c r="AC10" t="n">
-        <v>1168.832672064572</v>
+        <v>1244.408380297646</v>
       </c>
       <c r="AD10" t="n">
-        <v>944388.5225999121</v>
+        <v>1005451.866522875</v>
       </c>
       <c r="AE10" t="n">
-        <v>1292154.040102357</v>
+        <v>1375703.60118236</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.44241185313973e-06</v>
+        <v>2.668839572544633e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.53548177083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1168832.672064572</v>
+        <v>1244408.380297646</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2405.452777879129</v>
+        <v>2511.240935727563</v>
       </c>
       <c r="AB2" t="n">
-        <v>3291.246611781321</v>
+        <v>3435.990636393699</v>
       </c>
       <c r="AC2" t="n">
-        <v>2977.13465444642</v>
+        <v>3108.0645124993</v>
       </c>
       <c r="AD2" t="n">
-        <v>2405452.777879129</v>
+        <v>2511240.935727563</v>
       </c>
       <c r="AE2" t="n">
-        <v>3291246.611781321</v>
+        <v>3435990.636393699</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.520804171760404e-07</v>
+        <v>1.624196778752138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.44889322916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2977134.654446419</v>
+        <v>3108064.5124993</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1293.53761138109</v>
+        <v>1375.798255455539</v>
       </c>
       <c r="AB3" t="n">
-        <v>1769.875226743446</v>
+        <v>1882.427869049596</v>
       </c>
       <c r="AC3" t="n">
-        <v>1600.960819138533</v>
+        <v>1702.771595231609</v>
       </c>
       <c r="AD3" t="n">
-        <v>1293537.61138109</v>
+        <v>1375798.255455539</v>
       </c>
       <c r="AE3" t="n">
-        <v>1769875.226743446</v>
+        <v>1882427.869049596</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.224805233530874e-06</v>
+        <v>2.334667802239386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.83528645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1600960.819138533</v>
+        <v>1702771.595231609</v>
       </c>
     </row>
     <row r="4">
@@ -4384,28 +4384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1058.41486847342</v>
+        <v>1128.997141269723</v>
       </c>
       <c r="AB4" t="n">
-        <v>1448.169917013836</v>
+        <v>1544.743696523848</v>
       </c>
       <c r="AC4" t="n">
-        <v>1309.958612653279</v>
+        <v>1397.315526189006</v>
       </c>
       <c r="AD4" t="n">
-        <v>1058414.86847342</v>
+        <v>1128997.141269723</v>
       </c>
       <c r="AE4" t="n">
-        <v>1448169.917013836</v>
+        <v>1544743.696523848</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.365337653275959e-06</v>
+        <v>2.602544282978942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.513671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1309958.612653279</v>
+        <v>1397315.526189006</v>
       </c>
     </row>
     <row r="5">
@@ -4490,28 +4490,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>928.1024502903473</v>
+        <v>998.5993822320791</v>
       </c>
       <c r="AB5" t="n">
-        <v>1269.870717477608</v>
+        <v>1366.327729865422</v>
       </c>
       <c r="AC5" t="n">
-        <v>1148.67603847629</v>
+        <v>1235.927328980079</v>
       </c>
       <c r="AD5" t="n">
-        <v>928102.4502903473</v>
+        <v>998599.382232079</v>
       </c>
       <c r="AE5" t="n">
-        <v>1269870.717477608</v>
+        <v>1366327.729865422</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.441447307405943e-06</v>
+        <v>2.747621029936172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.90657552083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1148676.03847629</v>
+        <v>1235927.328980079</v>
       </c>
     </row>
     <row r="6">
@@ -4596,28 +4596,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>866.3824157851401</v>
+        <v>936.8793477268717</v>
       </c>
       <c r="AB6" t="n">
-        <v>1185.422643371834</v>
+        <v>1281.879655759648</v>
       </c>
       <c r="AC6" t="n">
-        <v>1072.287570039555</v>
+        <v>1159.538860543343</v>
       </c>
       <c r="AD6" t="n">
-        <v>866382.4157851401</v>
+        <v>936879.3477268717</v>
       </c>
       <c r="AE6" t="n">
-        <v>1185422.643371833</v>
+        <v>1281879.655759648</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.476604558806088e-06</v>
+        <v>2.814636177007786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.64615885416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1072287.570039554</v>
+        <v>1159538.860543343</v>
       </c>
     </row>
     <row r="7">
@@ -4702,28 +4702,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>860.7333948826082</v>
+        <v>931.2303268243401</v>
       </c>
       <c r="AB7" t="n">
-        <v>1177.693403755776</v>
+        <v>1274.150416143591</v>
       </c>
       <c r="AC7" t="n">
-        <v>1065.295998204397</v>
+        <v>1152.547288708186</v>
       </c>
       <c r="AD7" t="n">
-        <v>860733.3948826082</v>
+        <v>931230.32682434</v>
       </c>
       <c r="AE7" t="n">
-        <v>1177693.403755776</v>
+        <v>1274150.416143591</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.480854336447864e-06</v>
+        <v>2.822736909071388e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.615234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1065295.998204398</v>
+        <v>1152547.288708186</v>
       </c>
     </row>
   </sheetData>
@@ -4999,28 +4999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.5712061442466</v>
+        <v>970.7299627280112</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.096522293484</v>
+        <v>1328.195560587943</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.888713850087</v>
+        <v>1201.434440419606</v>
       </c>
       <c r="AD2" t="n">
-        <v>897571.2061442466</v>
+        <v>970729.9627280112</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228096.522293484</v>
+        <v>1328195.560587943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371015243640542e-06</v>
+        <v>2.919903670242167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.79459635416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110888.713850087</v>
+        <v>1201434.440419606</v>
       </c>
     </row>
     <row r="3">
@@ -5105,28 +5105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.9689019698203</v>
+        <v>756.5789647163734</v>
       </c>
       <c r="AB3" t="n">
-        <v>949.518867422313</v>
+        <v>1035.184717433172</v>
       </c>
       <c r="AC3" t="n">
-        <v>858.8981193736269</v>
+        <v>936.3881408922249</v>
       </c>
       <c r="AD3" t="n">
-        <v>693968.9019698203</v>
+        <v>756578.9647163735</v>
       </c>
       <c r="AE3" t="n">
-        <v>949518.867422313</v>
+        <v>1035184.717433172</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.552509597094726e-06</v>
+        <v>3.306439145494726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.298828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>858898.1193736269</v>
+        <v>936388.1408922249</v>
       </c>
     </row>
     <row r="4">
@@ -5211,28 +5211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>699.2219533205002</v>
+        <v>761.8320160670534</v>
       </c>
       <c r="AB4" t="n">
-        <v>956.7063240285826</v>
+        <v>1042.372174039441</v>
       </c>
       <c r="AC4" t="n">
-        <v>865.399615209053</v>
+        <v>942.8896367276511</v>
       </c>
       <c r="AD4" t="n">
-        <v>699221.9533205002</v>
+        <v>761832.0160670533</v>
       </c>
       <c r="AE4" t="n">
-        <v>956706.3240285825</v>
+        <v>1042372.174039441</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.552401821350395e-06</v>
+        <v>3.306209611364529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.298828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>865399.6152090529</v>
+        <v>942889.6367276511</v>
       </c>
     </row>
   </sheetData>
@@ -5508,28 +5508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1316.752937449326</v>
+        <v>1393.470258426708</v>
       </c>
       <c r="AB2" t="n">
-        <v>1801.639460057909</v>
+        <v>1906.607483148496</v>
       </c>
       <c r="AC2" t="n">
-        <v>1629.693518606845</v>
+        <v>1724.643540897212</v>
       </c>
       <c r="AD2" t="n">
-        <v>1316752.937449326</v>
+        <v>1393470.258426708</v>
       </c>
       <c r="AE2" t="n">
-        <v>1801639.460057908</v>
+        <v>1906607.483148496</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159216650044177e-06</v>
+        <v>2.353610577489012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.47591145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1629693.518606845</v>
+        <v>1724643.540897212</v>
       </c>
     </row>
     <row r="3">
@@ -5614,28 +5614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>831.0949547842265</v>
+        <v>896.7551388608365</v>
       </c>
       <c r="AB3" t="n">
-        <v>1137.140782457476</v>
+        <v>1226.979943033975</v>
       </c>
       <c r="AC3" t="n">
-        <v>1028.613662166846</v>
+        <v>1109.878699347977</v>
       </c>
       <c r="AD3" t="n">
-        <v>831094.9547842265</v>
+        <v>896755.1388608365</v>
       </c>
       <c r="AE3" t="n">
-        <v>1137140.782457476</v>
+        <v>1226979.943033975</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473482624369059e-06</v>
+        <v>2.991679157066215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.38834635416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1028613.662166846</v>
+        <v>1109878.699347977</v>
       </c>
     </row>
     <row r="4">
@@ -5720,28 +5720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>743.3388081684158</v>
+        <v>809.0842435910463</v>
       </c>
       <c r="AB4" t="n">
-        <v>1017.068951129774</v>
+        <v>1107.024756358921</v>
       </c>
       <c r="AC4" t="n">
-        <v>920.0013178991856</v>
+        <v>1001.371867331029</v>
       </c>
       <c r="AD4" t="n">
-        <v>743338.8081684158</v>
+        <v>809084.2435910463</v>
       </c>
       <c r="AE4" t="n">
-        <v>1017068.951129774</v>
+        <v>1107024.756358922</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.537098800930231e-06</v>
+        <v>3.120841989611863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.91796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>920001.3178991856</v>
+        <v>1001371.867331029</v>
       </c>
     </row>
     <row r="5">
@@ -5826,28 +5826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>748.4947285172309</v>
+        <v>814.2401639398612</v>
       </c>
       <c r="AB5" t="n">
-        <v>1024.123508814175</v>
+        <v>1114.079314043323</v>
       </c>
       <c r="AC5" t="n">
-        <v>926.3825984993214</v>
+        <v>1007.753147931165</v>
       </c>
       <c r="AD5" t="n">
-        <v>748494.7285172309</v>
+        <v>814240.1639398612</v>
       </c>
       <c r="AE5" t="n">
-        <v>1024123.508814175</v>
+        <v>1114079.314043323</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.536686378391747e-06</v>
+        <v>3.120004629271211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.91959635416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>926382.5984993214</v>
+        <v>1007753.147931165</v>
       </c>
     </row>
   </sheetData>
@@ -6123,28 +6123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.3421934409162</v>
+        <v>740.4969298107274</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.1917624762505</v>
+        <v>1013.18056778596</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.6562679522399</v>
+        <v>916.484036404325</v>
       </c>
       <c r="AD2" t="n">
-        <v>670342.1934409161</v>
+        <v>740496.9298107274</v>
       </c>
       <c r="AE2" t="n">
-        <v>917191.7624762504</v>
+        <v>1013180.56778596</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518499072398538e-06</v>
+        <v>3.381400834856313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>829656.2679522398</v>
+        <v>916484.036404325</v>
       </c>
     </row>
     <row r="3">
@@ -6229,28 +6229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>654.918427842029</v>
+        <v>715.1973576239899</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.0882859353383</v>
+        <v>978.5645769817139</v>
       </c>
       <c r="AC3" t="n">
-        <v>810.5668775934772</v>
+        <v>885.171747178588</v>
       </c>
       <c r="AD3" t="n">
-        <v>654918.427842029</v>
+        <v>715197.3576239899</v>
       </c>
       <c r="AE3" t="n">
-        <v>896088.2859353382</v>
+        <v>978564.5769817139</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543348460137921e-06</v>
+        <v>3.436735567669088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.80501302083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>810566.8775934773</v>
+        <v>885171.7471785881</v>
       </c>
     </row>
   </sheetData>
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2648.661262043554</v>
+        <v>2767.26297311888</v>
       </c>
       <c r="AB2" t="n">
-        <v>3624.015189416171</v>
+        <v>3786.291282847655</v>
       </c>
       <c r="AC2" t="n">
-        <v>3278.144266075419</v>
+        <v>3424.932956905723</v>
       </c>
       <c r="AD2" t="n">
-        <v>2648661.262043554</v>
+        <v>2767262.97311888</v>
       </c>
       <c r="AE2" t="n">
-        <v>3624015.189416172</v>
+        <v>3786291.282847655</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.090104942015145e-07</v>
+        <v>1.529647649970823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.25618489583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3278144.266075419</v>
+        <v>3424932.956905723</v>
       </c>
     </row>
     <row r="3">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1383.440053617202</v>
+        <v>1454.703525091304</v>
       </c>
       <c r="AB3" t="n">
-        <v>1892.883714426724</v>
+        <v>1990.389540020065</v>
       </c>
       <c r="AC3" t="n">
-        <v>1712.229549400816</v>
+        <v>1800.429555849814</v>
       </c>
       <c r="AD3" t="n">
-        <v>1383440.053617202</v>
+        <v>1454703.525091304</v>
       </c>
       <c r="AE3" t="n">
-        <v>1892883.714426724</v>
+        <v>1990389.540020065</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.190734802161245e-06</v>
+        <v>2.251398102891272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.08430989583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1712229.549400816</v>
+        <v>1800429.555849814</v>
       </c>
     </row>
     <row r="4">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1116.556110143978</v>
+        <v>1187.819492109529</v>
       </c>
       <c r="AB4" t="n">
-        <v>1527.721328878046</v>
+        <v>1625.227032001839</v>
       </c>
       <c r="AC4" t="n">
-        <v>1381.917749420276</v>
+        <v>1470.117645088048</v>
       </c>
       <c r="AD4" t="n">
-        <v>1116556.110143978</v>
+        <v>1187819.492109529</v>
       </c>
       <c r="AE4" t="n">
-        <v>1527721.328878046</v>
+        <v>1625227.032001839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.335556486700631e-06</v>
+        <v>2.5252216824471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6650390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1381917.749420276</v>
+        <v>1470117.645088048</v>
       </c>
     </row>
     <row r="5">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>997.3236745790379</v>
+        <v>1056.709915725548</v>
       </c>
       <c r="AB5" t="n">
-        <v>1364.582250374282</v>
+        <v>1445.837125446991</v>
       </c>
       <c r="AC5" t="n">
-        <v>1234.348435601777</v>
+        <v>1307.848459439479</v>
       </c>
       <c r="AD5" t="n">
-        <v>997323.6745790378</v>
+        <v>1056709.915725548</v>
       </c>
       <c r="AE5" t="n">
-        <v>1364582.250374282</v>
+        <v>1445837.125446991</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411652480890196e-06</v>
+        <v>2.669101223588464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.03678385416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1234348.435601777</v>
+        <v>1307848.45943948</v>
       </c>
     </row>
     <row r="6">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>900.2362585963637</v>
+        <v>971.4142997073433</v>
       </c>
       <c r="AB6" t="n">
-        <v>1231.742964632287</v>
+        <v>1329.131900633882</v>
       </c>
       <c r="AC6" t="n">
-        <v>1114.187144849889</v>
+        <v>1202.281417485722</v>
       </c>
       <c r="AD6" t="n">
-        <v>900236.2585963637</v>
+        <v>971414.2997073432</v>
       </c>
       <c r="AE6" t="n">
-        <v>1231742.964632287</v>
+        <v>1329131.900633882</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.45874585087921e-06</v>
+        <v>2.758143656596704e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.68033854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1114187.144849889</v>
+        <v>1202281.417485722</v>
       </c>
     </row>
     <row r="7">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>877.1813842862757</v>
+        <v>948.3594253972551</v>
       </c>
       <c r="AB7" t="n">
-        <v>1200.198268491954</v>
+        <v>1297.587204493549</v>
       </c>
       <c r="AC7" t="n">
-        <v>1085.653030235931</v>
+        <v>1173.747302871763</v>
       </c>
       <c r="AD7" t="n">
-        <v>877181.3842862757</v>
+        <v>948359.4253972551</v>
       </c>
       <c r="AE7" t="n">
-        <v>1200198.268491954</v>
+        <v>1297587.204493549</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.472242121546793e-06</v>
+        <v>2.78366191483687e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5810546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1085653.030235931</v>
+        <v>1173747.302871763</v>
       </c>
     </row>
     <row r="8">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>884.3679456652194</v>
+        <v>955.5459867761988</v>
       </c>
       <c r="AB8" t="n">
-        <v>1210.031238819337</v>
+        <v>1307.420174820931</v>
       </c>
       <c r="AC8" t="n">
-        <v>1094.547555675928</v>
+        <v>1182.641828311761</v>
       </c>
       <c r="AD8" t="n">
-        <v>884367.9456652194</v>
+        <v>955545.9867761988</v>
       </c>
       <c r="AE8" t="n">
-        <v>1210031.238819337</v>
+        <v>1307420.174820931</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470710629839833e-06</v>
+        <v>2.780766225958554e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.59244791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1094547.555675928</v>
+        <v>1182641.828311761</v>
       </c>
     </row>
   </sheetData>
@@ -7459,28 +7459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.532413995051</v>
+        <v>698.2446965578231</v>
       </c>
       <c r="AB2" t="n">
-        <v>875.0364630068782</v>
+        <v>955.3691982123621</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.5242110988904</v>
+        <v>864.1901028040648</v>
       </c>
       <c r="AD2" t="n">
-        <v>639532.4139950511</v>
+        <v>698244.6965578231</v>
       </c>
       <c r="AE2" t="n">
-        <v>875036.4630068782</v>
+        <v>955369.1982123621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518837044646667e-06</v>
+        <v>3.4820353044675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.275390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>791524.2110988904</v>
+        <v>864190.1028040649</v>
       </c>
     </row>
     <row r="3">
@@ -7565,28 +7565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.2535482816273</v>
+        <v>703.9658308443994</v>
       </c>
       <c r="AB3" t="n">
-        <v>882.8643713364032</v>
+        <v>963.1971065418871</v>
       </c>
       <c r="AC3" t="n">
-        <v>798.6050348439838</v>
+        <v>871.2709265491584</v>
       </c>
       <c r="AD3" t="n">
-        <v>645253.5482816274</v>
+        <v>703965.8308443994</v>
       </c>
       <c r="AE3" t="n">
-        <v>882864.3713364032</v>
+        <v>963197.1065418872</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.519638904463585e-06</v>
+        <v>3.483873621620473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26888020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>798605.0348439838</v>
+        <v>871270.9265491584</v>
       </c>
     </row>
   </sheetData>
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1805.467151847718</v>
+        <v>1896.544225834953</v>
       </c>
       <c r="AB2" t="n">
-        <v>2470.319808747259</v>
+        <v>2594.935479413521</v>
       </c>
       <c r="AC2" t="n">
-        <v>2234.555953316048</v>
+        <v>2347.278479273113</v>
       </c>
       <c r="AD2" t="n">
-        <v>1805467.151847718</v>
+        <v>1896544.225834953</v>
       </c>
       <c r="AE2" t="n">
-        <v>2470319.808747259</v>
+        <v>2594935.479413521</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.919491768337134e-07</v>
+        <v>1.944206677921743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2234555.953316048</v>
+        <v>2347278.479273113</v>
       </c>
     </row>
     <row r="3">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1067.353140099528</v>
+        <v>1135.639632753449</v>
       </c>
       <c r="AB3" t="n">
-        <v>1460.39965458139</v>
+        <v>1553.832246417924</v>
       </c>
       <c r="AC3" t="n">
-        <v>1321.02116123193</v>
+        <v>1405.536677637051</v>
       </c>
       <c r="AD3" t="n">
-        <v>1067353.140099528</v>
+        <v>1135639.632753449</v>
       </c>
       <c r="AE3" t="n">
-        <v>1460399.65458139</v>
+        <v>1553832.246417924</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.337957131072359e-06</v>
+        <v>2.622377486422335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.10611979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1321021.16123193</v>
+        <v>1405536.677637051</v>
       </c>
     </row>
     <row r="4">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>874.2375215518514</v>
+        <v>931.2140643936874</v>
       </c>
       <c r="AB4" t="n">
-        <v>1196.170345624657</v>
+        <v>1274.128165168524</v>
       </c>
       <c r="AC4" t="n">
-        <v>1082.009526673863</v>
+        <v>1152.527161334951</v>
       </c>
       <c r="AD4" t="n">
-        <v>874237.5215518514</v>
+        <v>931214.0643936874</v>
       </c>
       <c r="AE4" t="n">
-        <v>1196170.345624657</v>
+        <v>1274128.165168524</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.467025959558849e-06</v>
+        <v>2.87535060653314e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1082009.526673863</v>
+        <v>1152527.16133495</v>
       </c>
     </row>
     <row r="5">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>800.6246437965842</v>
+        <v>868.9110469419544</v>
       </c>
       <c r="AB5" t="n">
-        <v>1095.449958708935</v>
+        <v>1188.882428075921</v>
       </c>
       <c r="AC5" t="n">
-        <v>990.9017521234274</v>
+        <v>1075.417157747322</v>
       </c>
       <c r="AD5" t="n">
-        <v>800624.6437965842</v>
+        <v>868911.0469419544</v>
       </c>
       <c r="AE5" t="n">
-        <v>1095449.958708935</v>
+        <v>1188882.428075921</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.509816704546659e-06</v>
+        <v>2.95921987534397e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.7275390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>990901.7521234273</v>
+        <v>1075417.157747322</v>
       </c>
     </row>
     <row r="6">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>804.6677719528864</v>
+        <v>872.9541750982567</v>
       </c>
       <c r="AB6" t="n">
-        <v>1100.981945022614</v>
+        <v>1194.414414389599</v>
       </c>
       <c r="AC6" t="n">
-        <v>995.9057734275196</v>
+        <v>1080.421179051414</v>
       </c>
       <c r="AD6" t="n">
-        <v>804667.7719528864</v>
+        <v>872954.1750982567</v>
       </c>
       <c r="AE6" t="n">
-        <v>1100981.945022614</v>
+        <v>1194414.414389599</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.509518164465349e-06</v>
+        <v>2.958634740910406e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>995905.7734275196</v>
+        <v>1080421.179051414</v>
       </c>
     </row>
   </sheetData>
@@ -8583,28 +8583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2189.734435467231</v>
+        <v>2294.547330861275</v>
       </c>
       <c r="AB2" t="n">
-        <v>2996.091258871571</v>
+        <v>3139.50088636848</v>
       </c>
       <c r="AC2" t="n">
-        <v>2710.14851416536</v>
+        <v>2839.871328090523</v>
       </c>
       <c r="AD2" t="n">
-        <v>2189734.435467232</v>
+        <v>2294547.330861275</v>
       </c>
       <c r="AE2" t="n">
-        <v>2996091.258871571</v>
+        <v>3139500.88636848</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.955675097206375e-07</v>
+        <v>1.721910410396381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.72135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2710148.51416536</v>
+        <v>2839871.328090522</v>
       </c>
     </row>
     <row r="3">
@@ -8689,28 +8689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1215.845528024611</v>
+        <v>1297.281328032072</v>
       </c>
       <c r="AB3" t="n">
-        <v>1663.573490762297</v>
+        <v>1774.997545026441</v>
       </c>
       <c r="AC3" t="n">
-        <v>1504.804371644001</v>
+        <v>1605.594270553817</v>
       </c>
       <c r="AD3" t="n">
-        <v>1215845.528024611</v>
+        <v>1297281.328032072</v>
       </c>
       <c r="AE3" t="n">
-        <v>1663573.490762297</v>
+        <v>1774997.545026441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261497271721895e-06</v>
+        <v>2.425484691312834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.57975260416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1504804.371644001</v>
+        <v>1605594.270553817</v>
       </c>
     </row>
     <row r="4">
@@ -8795,28 +8795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>996.9566050434295</v>
+        <v>1066.661276438865</v>
       </c>
       <c r="AB4" t="n">
-        <v>1364.080009641698</v>
+        <v>1459.453016198001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1233.894128019811</v>
+        <v>1320.164868687236</v>
       </c>
       <c r="AD4" t="n">
-        <v>996956.6050434295</v>
+        <v>1066661.276438865</v>
       </c>
       <c r="AE4" t="n">
-        <v>1364080.009641698</v>
+        <v>1459453.016198001</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.398001845876374e-06</v>
+        <v>2.687942456642712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.35091145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1233894.128019811</v>
+        <v>1320164.868687236</v>
       </c>
     </row>
     <row r="5">
@@ -8901,28 +8901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>875.408003780573</v>
+        <v>945.197926522029</v>
       </c>
       <c r="AB5" t="n">
-        <v>1197.771851048025</v>
+        <v>1293.261502256977</v>
       </c>
       <c r="AC5" t="n">
-        <v>1083.458186667352</v>
+        <v>1169.834439585489</v>
       </c>
       <c r="AD5" t="n">
-        <v>875408.003780573</v>
+        <v>945197.926522029</v>
       </c>
       <c r="AE5" t="n">
-        <v>1197771.851048025</v>
+        <v>1293261.502256977</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.468496708100438e-06</v>
+        <v>2.823483145452357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1083458.186667352</v>
+        <v>1169834.439585489</v>
       </c>
     </row>
     <row r="6">
@@ -9007,28 +9007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>837.1272447474038</v>
+        <v>906.9171674888596</v>
       </c>
       <c r="AB6" t="n">
-        <v>1145.394427710946</v>
+        <v>1240.884078919898</v>
       </c>
       <c r="AC6" t="n">
-        <v>1036.079591101388</v>
+        <v>1122.455844019526</v>
       </c>
       <c r="AD6" t="n">
-        <v>837127.2447474038</v>
+        <v>906917.1674888596</v>
       </c>
       <c r="AE6" t="n">
-        <v>1145394.427710946</v>
+        <v>1240884.078919898</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.490239936697901e-06</v>
+        <v>2.865288918072759e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.6494140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1036079.591101388</v>
+        <v>1122455.844019525</v>
       </c>
     </row>
     <row r="7">
@@ -9113,28 +9113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>839.7453560313032</v>
+        <v>909.5352787727591</v>
       </c>
       <c r="AB7" t="n">
-        <v>1148.976643072495</v>
+        <v>1244.466294281448</v>
       </c>
       <c r="AC7" t="n">
-        <v>1039.319924856502</v>
+        <v>1125.696177774639</v>
       </c>
       <c r="AD7" t="n">
-        <v>839745.3560313032</v>
+        <v>909535.278772759</v>
       </c>
       <c r="AE7" t="n">
-        <v>1148976.643072495</v>
+        <v>1244466.294281448</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.491702485706699e-06</v>
+        <v>2.868100965558436e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1039319.924856502</v>
+        <v>1125696.177774639</v>
       </c>
     </row>
   </sheetData>
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3182.342648201936</v>
+        <v>3315.27871718043</v>
       </c>
       <c r="AB2" t="n">
-        <v>4354.221606319192</v>
+        <v>4536.110600621028</v>
       </c>
       <c r="AC2" t="n">
-        <v>3938.66080740033</v>
+        <v>4103.1905713688</v>
       </c>
       <c r="AD2" t="n">
-        <v>3182342.648201936</v>
+        <v>3315278.71718043</v>
       </c>
       <c r="AE2" t="n">
-        <v>4354221.606319192</v>
+        <v>4536110.600621029</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.300299257804181e-07</v>
+        <v>1.359990381569463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.98307291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3938660.80740033</v>
+        <v>4103190.5713688</v>
       </c>
     </row>
     <row r="3">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1546.932816883438</v>
+        <v>1631.582804959025</v>
       </c>
       <c r="AB3" t="n">
-        <v>2116.58172591925</v>
+        <v>2232.403574098174</v>
       </c>
       <c r="AC3" t="n">
-        <v>1914.578136638626</v>
+        <v>2019.346110184339</v>
       </c>
       <c r="AD3" t="n">
-        <v>1546932.816883438</v>
+        <v>1631582.804959025</v>
       </c>
       <c r="AE3" t="n">
-        <v>2116581.72591925</v>
+        <v>2232403.574098174</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.125302026886227e-06</v>
+        <v>2.096352325954115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1914578.136638626</v>
+        <v>2019346.110184339</v>
       </c>
     </row>
     <row r="4">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1237.415562496683</v>
+        <v>1321.894868863127</v>
       </c>
       <c r="AB4" t="n">
-        <v>1693.086563529745</v>
+        <v>1808.674877464274</v>
       </c>
       <c r="AC4" t="n">
-        <v>1531.500758168382</v>
+        <v>1636.057485650217</v>
       </c>
       <c r="AD4" t="n">
-        <v>1237415.562496683</v>
+        <v>1321894.868863127</v>
       </c>
       <c r="AE4" t="n">
-        <v>1693086.563529745</v>
+        <v>1808674.877464274</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.277199448596887e-06</v>
+        <v>2.379325701724788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.99381510416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1531500.758168382</v>
+        <v>1636057.485650217</v>
       </c>
     </row>
     <row r="5">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1104.155128926682</v>
+        <v>1176.541669362307</v>
       </c>
       <c r="AB5" t="n">
-        <v>1510.753759283862</v>
+        <v>1609.796217376665</v>
       </c>
       <c r="AC5" t="n">
-        <v>1366.569540854028</v>
+        <v>1456.159525753416</v>
       </c>
       <c r="AD5" t="n">
-        <v>1104155.128926682</v>
+        <v>1176541.669362307</v>
       </c>
       <c r="AE5" t="n">
-        <v>1510753.759283862</v>
+        <v>1609796.217376665</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.357100880463276e-06</v>
+        <v>2.528176009053972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28743489583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1366569.540854028</v>
+        <v>1456159.525753416</v>
       </c>
     </row>
     <row r="6">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1003.893565110804</v>
+        <v>1076.36535689245</v>
       </c>
       <c r="AB6" t="n">
-        <v>1373.571464442959</v>
+        <v>1472.730567188411</v>
       </c>
       <c r="AC6" t="n">
-        <v>1242.479731696181</v>
+        <v>1332.175228846281</v>
       </c>
       <c r="AD6" t="n">
-        <v>1003893.565110804</v>
+        <v>1076365.35689245</v>
       </c>
       <c r="AE6" t="n">
-        <v>1373571.464442959</v>
+        <v>1472730.567188411</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.408956815632157e-06</v>
+        <v>2.62477968318634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1242479.731696181</v>
+        <v>1332175.228846281</v>
       </c>
     </row>
     <row r="7">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>938.339579498774</v>
+        <v>1010.81137128042</v>
       </c>
       <c r="AB7" t="n">
-        <v>1283.877609290844</v>
+        <v>1383.036712036296</v>
       </c>
       <c r="AC7" t="n">
-        <v>1161.346132193667</v>
+        <v>1251.041629343767</v>
       </c>
       <c r="AD7" t="n">
-        <v>938339.579498774</v>
+        <v>1010811.37128042</v>
       </c>
       <c r="AE7" t="n">
-        <v>1283877.609290844</v>
+        <v>1383036.712036296</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.44217849460605e-06</v>
+        <v>2.686669151369145e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.62174479166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1161346.132193667</v>
+        <v>1251041.629343767</v>
       </c>
     </row>
     <row r="8">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>916.1885546852069</v>
+        <v>976.7381727366263</v>
       </c>
       <c r="AB8" t="n">
-        <v>1253.569599906676</v>
+        <v>1336.416258585249</v>
       </c>
       <c r="AC8" t="n">
-        <v>1133.930676687566</v>
+        <v>1208.870566537871</v>
       </c>
       <c r="AD8" t="n">
-        <v>916188.5546852069</v>
+        <v>976738.1727366264</v>
       </c>
       <c r="AE8" t="n">
-        <v>1253569.599906676</v>
+        <v>1336416.258585249</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.452624971563846e-06</v>
+        <v>2.706130145613596e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.54524739583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1133930.676687566</v>
+        <v>1208870.566537871</v>
       </c>
     </row>
     <row r="9">
@@ -10152,28 +10152,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>918.8226953662943</v>
+        <v>979.3723134177136</v>
       </c>
       <c r="AB9" t="n">
-        <v>1257.173747396625</v>
+        <v>1340.020406075197</v>
       </c>
       <c r="AC9" t="n">
-        <v>1137.190849399527</v>
+        <v>1212.130739249832</v>
       </c>
       <c r="AD9" t="n">
-        <v>918822.6953662942</v>
+        <v>979372.3134177136</v>
       </c>
       <c r="AE9" t="n">
-        <v>1257173.747396625</v>
+        <v>1340020.406075197</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.452060297133695e-06</v>
+        <v>2.705078199978761e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.54850260416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1137190.849399527</v>
+        <v>1212130.739249832</v>
       </c>
     </row>
   </sheetData>
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1474.834590958692</v>
+        <v>1552.678064891006</v>
       </c>
       <c r="AB2" t="n">
-        <v>2017.93375245977</v>
+        <v>2124.442627705658</v>
       </c>
       <c r="AC2" t="n">
-        <v>1825.344987312818</v>
+        <v>1921.688804991384</v>
       </c>
       <c r="AD2" t="n">
-        <v>1474834.590958692</v>
+        <v>1552678.064891006</v>
       </c>
       <c r="AE2" t="n">
-        <v>2017933.75245977</v>
+        <v>2124442.627705658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.099095366138724e-06</v>
+        <v>2.203133754278656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.07649739583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1825344.987312818</v>
+        <v>1921688.804991384</v>
       </c>
     </row>
     <row r="3">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>906.2445646298017</v>
+        <v>972.9674655644562</v>
       </c>
       <c r="AB3" t="n">
-        <v>1239.963794014991</v>
+        <v>1331.257010680425</v>
       </c>
       <c r="AC3" t="n">
-        <v>1121.623389814315</v>
+        <v>1204.203710012034</v>
       </c>
       <c r="AD3" t="n">
-        <v>906244.5646298018</v>
+        <v>972967.4655644562</v>
       </c>
       <c r="AE3" t="n">
-        <v>1239963.794014991</v>
+        <v>1331257.010680425</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.425514981130919e-06</v>
+        <v>2.857441009138997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.62434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1121623.389814315</v>
+        <v>1204203.710012034</v>
       </c>
     </row>
     <row r="4">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.0962230193571</v>
+        <v>833.7337830994396</v>
       </c>
       <c r="AB4" t="n">
-        <v>1049.574894232003</v>
+        <v>1140.751343775239</v>
       </c>
       <c r="AC4" t="n">
-        <v>949.4049394141161</v>
+        <v>1031.879636579896</v>
       </c>
       <c r="AD4" t="n">
-        <v>767096.2230193571</v>
+        <v>833733.7830994396</v>
       </c>
       <c r="AE4" t="n">
-        <v>1049574.894232003</v>
+        <v>1140751.343775239</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524072120030621e-06</v>
+        <v>3.054998533376305e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8740234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>949404.9394141161</v>
+        <v>1031879.636579896</v>
       </c>
     </row>
     <row r="5">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>763.8135679616104</v>
+        <v>830.4511280416931</v>
       </c>
       <c r="AB5" t="n">
-        <v>1045.083420761474</v>
+        <v>1136.25987030471</v>
       </c>
       <c r="AC5" t="n">
-        <v>945.342125867792</v>
+        <v>1027.816823033572</v>
       </c>
       <c r="AD5" t="n">
-        <v>763813.5679616104</v>
+        <v>830451.1280416931</v>
       </c>
       <c r="AE5" t="n">
-        <v>1045083.420761474</v>
+        <v>1136259.87030471</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.529468327015832e-06</v>
+        <v>3.065815216005001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.8349609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>945342.1258677919</v>
+        <v>1027816.823033572</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1035.46657549858</v>
+        <v>1109.812726346092</v>
       </c>
       <c r="AB2" t="n">
-        <v>1416.771050158426</v>
+        <v>1518.494733668682</v>
       </c>
       <c r="AC2" t="n">
-        <v>1281.556409581962</v>
+        <v>1373.571727508086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1035466.57549858</v>
+        <v>1109812.726346092</v>
       </c>
       <c r="AE2" t="n">
-        <v>1416771.050158426</v>
+        <v>1518494.733668682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.293692009753869e-06</v>
+        <v>2.706484589208542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34309895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1281556.409581963</v>
+        <v>1373571.727508086</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.7749440636966</v>
+        <v>770.0012786066078</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.7231003467223</v>
+        <v>1053.549719448487</v>
       </c>
       <c r="AC3" t="n">
-        <v>887.1242641031466</v>
+        <v>953.000412890641</v>
       </c>
       <c r="AD3" t="n">
-        <v>716774.9440636965</v>
+        <v>770001.2786066078</v>
       </c>
       <c r="AE3" t="n">
-        <v>980723.1003467223</v>
+        <v>1053549.719448487</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544942737013003e-06</v>
+        <v>3.232116823331762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.17350260416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>887124.2641031466</v>
+        <v>953000.412890641</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>715.4427337325789</v>
+        <v>768.6690682754901</v>
       </c>
       <c r="AB4" t="n">
-        <v>978.9003113987151</v>
+        <v>1051.72693050048</v>
       </c>
       <c r="AC4" t="n">
-        <v>885.475439574037</v>
+        <v>951.3515883615315</v>
       </c>
       <c r="AD4" t="n">
-        <v>715442.7337325788</v>
+        <v>768669.0682754901</v>
       </c>
       <c r="AE4" t="n">
-        <v>978900.3113987151</v>
+        <v>1051726.93050048</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550881969063029e-06</v>
+        <v>3.244542068207616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.13118489583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>885475.439574037</v>
+        <v>951351.5883615315</v>
       </c>
     </row>
   </sheetData>
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>771.6842958040025</v>
+        <v>833.191355675346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1055.852497827441</v>
+        <v>1140.009170643385</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.0834173330773</v>
+        <v>1031.2082954101</v>
       </c>
       <c r="AD2" t="n">
-        <v>771684.2958040026</v>
+        <v>833191.355675346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1055852.497827441</v>
+        <v>1140009.170643385</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.457740996936827e-06</v>
+        <v>3.16891867714796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24934895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>955083.4173330773</v>
+        <v>1031208.2954101</v>
       </c>
     </row>
     <row r="3">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>672.248986335876</v>
+        <v>733.6707053526479</v>
       </c>
       <c r="AB3" t="n">
-        <v>919.8007206369001</v>
+        <v>1003.840626330647</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.016230807733</v>
+        <v>908.0354858528168</v>
       </c>
       <c r="AD3" t="n">
-        <v>672248.986335876</v>
+        <v>733670.7053526479</v>
       </c>
       <c r="AE3" t="n">
-        <v>919800.7206369002</v>
+        <v>1003840.626330647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.553080571433561e-06</v>
+        <v>3.376173161263379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.49739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>832016.230807733</v>
+        <v>908035.4858528168</v>
       </c>
     </row>
   </sheetData>
@@ -20461,28 +20461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>630.1680160460269</v>
+        <v>687.2423696008213</v>
       </c>
       <c r="AB2" t="n">
-        <v>862.2236806049431</v>
+        <v>940.3153290813842</v>
       </c>
       <c r="AC2" t="n">
-        <v>779.9342626665425</v>
+        <v>850.5729538147092</v>
       </c>
       <c r="AD2" t="n">
-        <v>630168.0160460268</v>
+        <v>687242.3696008214</v>
       </c>
       <c r="AE2" t="n">
-        <v>862223.6806049431</v>
+        <v>940315.3290813842</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.466275973795953e-06</v>
+        <v>3.487576939639716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0712890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>779934.2626665425</v>
+        <v>850572.9538147092</v>
       </c>
     </row>
   </sheetData>
@@ -20758,28 +20758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1994.695405930743</v>
+        <v>2086.881545848523</v>
       </c>
       <c r="AB2" t="n">
-        <v>2729.230254145042</v>
+        <v>2855.363397746009</v>
       </c>
       <c r="AC2" t="n">
-        <v>2468.756349188157</v>
+        <v>2582.851522592827</v>
       </c>
       <c r="AD2" t="n">
-        <v>1994695.405930743</v>
+        <v>2086881.545848523</v>
       </c>
       <c r="AE2" t="n">
-        <v>2729230.254145042</v>
+        <v>2855363.397746008</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.428152587158665e-07</v>
+        <v>1.829606732966329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.00032552083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2468756.349188157</v>
+        <v>2582851.522592827</v>
       </c>
     </row>
     <row r="3">
@@ -20864,28 +20864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1140.276139305226</v>
+        <v>1209.330425766128</v>
       </c>
       <c r="AB3" t="n">
-        <v>1560.176119230298</v>
+        <v>1654.659240426213</v>
       </c>
       <c r="AC3" t="n">
-        <v>1411.275100131894</v>
+        <v>1496.740884848764</v>
       </c>
       <c r="AD3" t="n">
-        <v>1140276.139305227</v>
+        <v>1209330.425766127</v>
       </c>
       <c r="AE3" t="n">
-        <v>1560176.119230298</v>
+        <v>1654659.240426213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.299497613747083e-06</v>
+        <v>2.521776733677008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.333984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1411275.100131894</v>
+        <v>1496740.884848764</v>
       </c>
     </row>
     <row r="4">
@@ -20970,28 +20970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>938.177430815496</v>
+        <v>995.7938018298148</v>
       </c>
       <c r="AB4" t="n">
-        <v>1283.655750308887</v>
+        <v>1362.489010985573</v>
       </c>
       <c r="AC4" t="n">
-        <v>1161.145447121567</v>
+        <v>1232.454972042446</v>
       </c>
       <c r="AD4" t="n">
-        <v>938177.430815496</v>
+        <v>995793.8018298148</v>
       </c>
       <c r="AE4" t="n">
-        <v>1283655.750308888</v>
+        <v>1362489.010985573</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.430865438598448e-06</v>
+        <v>2.776706270106618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.20279947916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1161145.447121568</v>
+        <v>1232454.972042446</v>
       </c>
     </row>
     <row r="5">
@@ -21076,28 +21076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.5696621468597</v>
+        <v>902.6238590992095</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.526786247414</v>
+        <v>1235.009784973781</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.676510507358</v>
+        <v>1117.142184443002</v>
       </c>
       <c r="AD5" t="n">
-        <v>833569.6621468597</v>
+        <v>902623.8590992095</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140526.786247414</v>
+        <v>1235009.784973781</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.491822472768609e-06</v>
+        <v>2.894998161448393e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.74381510416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031676.510507358</v>
+        <v>1117142.184443002</v>
       </c>
     </row>
     <row r="6">
@@ -21182,28 +21182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>822.5170735647039</v>
+        <v>891.5712705170538</v>
       </c>
       <c r="AB6" t="n">
-        <v>1125.404146943514</v>
+        <v>1219.88714566988</v>
       </c>
       <c r="AC6" t="n">
-        <v>1017.997154673865</v>
+        <v>1103.462828609509</v>
       </c>
       <c r="AD6" t="n">
-        <v>822517.0735647039</v>
+        <v>891571.2705170538</v>
       </c>
       <c r="AE6" t="n">
-        <v>1125404.146943514</v>
+        <v>1219887.14566988</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.499700603194478e-06</v>
+        <v>2.910286289570109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.68684895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1017997.154673865</v>
+        <v>1103462.828609508</v>
       </c>
     </row>
     <row r="7">
@@ -21288,28 +21288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>826.6533051237391</v>
+        <v>895.7075020760886</v>
       </c>
       <c r="AB7" t="n">
-        <v>1131.063521440243</v>
+        <v>1225.54652016661</v>
       </c>
       <c r="AC7" t="n">
-        <v>1023.116406411608</v>
+        <v>1108.582080347252</v>
       </c>
       <c r="AD7" t="n">
-        <v>826653.3051237391</v>
+        <v>895707.5020760887</v>
       </c>
       <c r="AE7" t="n">
-        <v>1131063.521440243</v>
+        <v>1225546.52016661</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.499700603194478e-06</v>
+        <v>2.910286289570109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.6884765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1023116.406411608</v>
+        <v>1108582.080347252</v>
       </c>
     </row>
   </sheetData>
@@ -21585,28 +21585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2911.259640969161</v>
+        <v>3031.042696664385</v>
       </c>
       <c r="AB2" t="n">
-        <v>3983.313876485056</v>
+        <v>4147.206337742729</v>
       </c>
       <c r="AC2" t="n">
-        <v>3603.151990729309</v>
+        <v>3751.402785509059</v>
       </c>
       <c r="AD2" t="n">
-        <v>2911259.640969161</v>
+        <v>3031042.696664385</v>
       </c>
       <c r="AE2" t="n">
-        <v>3983313.876485055</v>
+        <v>4147206.33774273</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.683665531948892e-07</v>
+        <v>1.441757029626108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.10091145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3603151.990729309</v>
+        <v>3751402.785509059</v>
       </c>
     </row>
     <row r="3">
@@ -21691,28 +21691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1462.124467360316</v>
+        <v>1545.861690088595</v>
       </c>
       <c r="AB3" t="n">
-        <v>2000.543200621394</v>
+        <v>2115.116162983766</v>
       </c>
       <c r="AC3" t="n">
-        <v>1809.614165334104</v>
+        <v>1913.252444972775</v>
       </c>
       <c r="AD3" t="n">
-        <v>1462124.467360316</v>
+        <v>1545861.690088595</v>
       </c>
       <c r="AE3" t="n">
-        <v>2000543.200621394</v>
+        <v>2115116.162983766</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158101199850615e-06</v>
+        <v>2.17305209207818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33658854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1809614.165334104</v>
+        <v>1913252.444972774</v>
       </c>
     </row>
     <row r="4">
@@ -21797,28 +21797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1179.284546440736</v>
+        <v>1251.205530665483</v>
       </c>
       <c r="AB4" t="n">
-        <v>1613.549142802568</v>
+        <v>1711.954606348756</v>
       </c>
       <c r="AC4" t="n">
-        <v>1459.554277243935</v>
+        <v>1548.568061462212</v>
       </c>
       <c r="AD4" t="n">
-        <v>1179284.546440736</v>
+        <v>1251205.530665483</v>
       </c>
       <c r="AE4" t="n">
-        <v>1613549.142802568</v>
+        <v>1711954.606348756</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.304144935230006e-06</v>
+        <v>2.447087422273879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1459554.277243935</v>
+        <v>1548568.061462211</v>
       </c>
     </row>
     <row r="5">
@@ -21903,28 +21903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1049.27621126792</v>
+        <v>1109.210454297093</v>
       </c>
       <c r="AB5" t="n">
-        <v>1435.666003056168</v>
+        <v>1517.670678480874</v>
       </c>
       <c r="AC5" t="n">
-        <v>1298.648054694378</v>
+        <v>1372.826318990834</v>
       </c>
       <c r="AD5" t="n">
-        <v>1049276.21126792</v>
+        <v>1109210.454297093</v>
       </c>
       <c r="AE5" t="n">
-        <v>1435666.003056168</v>
+        <v>1517670.678480874</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.383951810768712e-06</v>
+        <v>2.596836423374973e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.16048177083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1298648.054694378</v>
+        <v>1372826.318990834</v>
       </c>
     </row>
     <row r="6">
@@ -22009,28 +22009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>952.0682526444093</v>
+        <v>1023.903896014584</v>
       </c>
       <c r="AB6" t="n">
-        <v>1302.661785555015</v>
+        <v>1400.950481979006</v>
       </c>
       <c r="AC6" t="n">
-        <v>1178.337573038943</v>
+        <v>1267.24573422528</v>
       </c>
       <c r="AD6" t="n">
-        <v>952068.2526444093</v>
+        <v>1023903.896014584</v>
       </c>
       <c r="AE6" t="n">
-        <v>1302661.785555015</v>
+        <v>1400950.481979006</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.433771798471234e-06</v>
+        <v>2.69031826116103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.771484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1178337.573038943</v>
+        <v>1267245.73422528</v>
       </c>
     </row>
     <row r="7">
@@ -22115,28 +22115,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>901.9511880499846</v>
+        <v>973.7868314201596</v>
       </c>
       <c r="AB7" t="n">
-        <v>1234.089406768079</v>
+        <v>1332.378103192069</v>
       </c>
       <c r="AC7" t="n">
-        <v>1116.309645841493</v>
+        <v>1205.21780702783</v>
       </c>
       <c r="AD7" t="n">
-        <v>901951.1880499846</v>
+        <v>973786.8314201597</v>
       </c>
       <c r="AE7" t="n">
-        <v>1234089.406768079</v>
+        <v>1332378.103192069</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.459583296861874e-06</v>
+        <v>2.738750756166378e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5810546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1116309.645841493</v>
+        <v>1205217.80702783</v>
       </c>
     </row>
     <row r="8">
@@ -22221,28 +22221,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>902.0858042241691</v>
+        <v>973.9214475943442</v>
       </c>
       <c r="AB8" t="n">
-        <v>1234.273594556444</v>
+        <v>1332.562290980435</v>
       </c>
       <c r="AC8" t="n">
-        <v>1116.476255005846</v>
+        <v>1205.384416192184</v>
       </c>
       <c r="AD8" t="n">
-        <v>902085.8042241691</v>
+        <v>973921.4475943442</v>
       </c>
       <c r="AE8" t="n">
-        <v>1234273.594556444</v>
+        <v>1332562.290980435</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.461386305940631e-06</v>
+        <v>2.742133908391017e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.56966145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1116476.255005846</v>
+        <v>1205384.416192184</v>
       </c>
     </row>
     <row r="9">
@@ -22327,28 +22327,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>906.2840953731123</v>
+        <v>978.1197387432875</v>
       </c>
       <c r="AB9" t="n">
-        <v>1240.017881721962</v>
+        <v>1338.306578145953</v>
       </c>
       <c r="AC9" t="n">
-        <v>1121.672315466445</v>
+        <v>1210.580476652782</v>
       </c>
       <c r="AD9" t="n">
-        <v>906284.0953731124</v>
+        <v>978119.7387432875</v>
       </c>
       <c r="AE9" t="n">
-        <v>1240017.881721962</v>
+        <v>1338306.578145953</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.46129141072596e-06</v>
+        <v>2.741955847747615e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.56966145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1121672.315466445</v>
+        <v>1210580.476652782</v>
       </c>
     </row>
   </sheetData>
@@ -22624,28 +22624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>625.2373330552007</v>
+        <v>698.4335359064961</v>
       </c>
       <c r="AB2" t="n">
-        <v>855.4773026105133</v>
+        <v>955.6275765402207</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.8317495193004</v>
+        <v>864.4238218669487</v>
       </c>
       <c r="AD2" t="n">
-        <v>625237.3330552006</v>
+        <v>698433.5359064961</v>
       </c>
       <c r="AE2" t="n">
-        <v>855477.3026105133</v>
+        <v>955627.5765402208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.340794969850356e-06</v>
+        <v>3.35322646729342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.80143229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>773831.7495193004</v>
+        <v>864423.8218669487</v>
       </c>
     </row>
   </sheetData>
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1167.384679559068</v>
+        <v>1253.725573644668</v>
       </c>
       <c r="AB2" t="n">
-        <v>1597.267219949993</v>
+        <v>1715.402640329326</v>
       </c>
       <c r="AC2" t="n">
-        <v>1444.826278256589</v>
+        <v>1551.687019919022</v>
       </c>
       <c r="AD2" t="n">
-        <v>1167384.679559068</v>
+        <v>1253725.573644668</v>
       </c>
       <c r="AE2" t="n">
-        <v>1597267.219949994</v>
+        <v>1715402.640329327</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22341555903922e-06</v>
+        <v>2.519359423135077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90462239583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1444826.278256589</v>
+        <v>1551687.019919022</v>
       </c>
     </row>
     <row r="3">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.6234928397589</v>
+        <v>829.3365824852242</v>
       </c>
       <c r="AB3" t="n">
-        <v>1046.191595711121</v>
+        <v>1134.73489990407</v>
       </c>
       <c r="AC3" t="n">
-        <v>946.3445381555774</v>
+        <v>1026.437393667659</v>
       </c>
       <c r="AD3" t="n">
-        <v>764623.4928397589</v>
+        <v>829336.5824852242</v>
       </c>
       <c r="AE3" t="n">
-        <v>1046191.595711121</v>
+        <v>1134734.89990407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51604870147129e-06</v>
+        <v>3.12197401264287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.220703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>946344.5381555774</v>
+        <v>1026437.393667659</v>
       </c>
     </row>
     <row r="4">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>733.364678010424</v>
+        <v>787.4345023906895</v>
       </c>
       <c r="AB4" t="n">
-        <v>1003.421906220042</v>
+        <v>1077.402625329421</v>
       </c>
       <c r="AC4" t="n">
-        <v>907.6567278018913</v>
+        <v>974.5768309120621</v>
       </c>
       <c r="AD4" t="n">
-        <v>733364.678010424</v>
+        <v>787434.5023906896</v>
       </c>
       <c r="AE4" t="n">
-        <v>1003421.906220042</v>
+        <v>1077402.625329421</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.544998480204748e-06</v>
+        <v>3.18158981310489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>907656.7278018913</v>
+        <v>974576.8309120621</v>
       </c>
     </row>
   </sheetData>
@@ -23430,28 +23430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1628.578043477404</v>
+        <v>1718.668502107593</v>
       </c>
       <c r="AB2" t="n">
-        <v>2228.2923268783</v>
+        <v>2351.558066886652</v>
       </c>
       <c r="AC2" t="n">
-        <v>2015.627234628958</v>
+        <v>2127.128665415465</v>
       </c>
       <c r="AD2" t="n">
-        <v>1628578.043477404</v>
+        <v>1718668.502107593</v>
       </c>
       <c r="AE2" t="n">
-        <v>2228292.3268783</v>
+        <v>2351558.066886652</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.04395840746627e-06</v>
+        <v>2.068273810234277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.68684895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2015627.234628958</v>
+        <v>2127128.665415465</v>
       </c>
     </row>
     <row r="3">
@@ -23536,28 +23536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.2124150122999</v>
+        <v>1047.780258984941</v>
       </c>
       <c r="AB3" t="n">
-        <v>1341.169870139577</v>
+        <v>1433.61917514584</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.17050007719</v>
+        <v>1296.79657316707</v>
       </c>
       <c r="AD3" t="n">
-        <v>980212.4150122999</v>
+        <v>1047780.258984941</v>
       </c>
       <c r="AE3" t="n">
-        <v>1341169.870139577</v>
+        <v>1433619.175145841</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.381245017762842e-06</v>
+        <v>2.736500683670933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.85709635416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213170.50007719</v>
+        <v>1296796.57316707</v>
       </c>
     </row>
     <row r="4">
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>810.8676851349506</v>
+        <v>878.3501882530204</v>
       </c>
       <c r="AB4" t="n">
-        <v>1109.46493975918</v>
+        <v>1201.797477643246</v>
       </c>
       <c r="AC4" t="n">
-        <v>1003.579163052386</v>
+        <v>1087.099613110327</v>
       </c>
       <c r="AD4" t="n">
-        <v>810867.6851349507</v>
+        <v>878350.1882530204</v>
       </c>
       <c r="AE4" t="n">
-        <v>1109464.93975918</v>
+        <v>1201797.477643246</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.497866491907749e-06</v>
+        <v>2.967549295339513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.93424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1003579.163052386</v>
+        <v>1087099.613110327</v>
       </c>
     </row>
     <row r="5">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>781.3611197076265</v>
+        <v>848.8436228256963</v>
       </c>
       <c r="AB5" t="n">
-        <v>1069.09275520372</v>
+        <v>1161.425293087786</v>
       </c>
       <c r="AC5" t="n">
-        <v>967.0600431281825</v>
+        <v>1050.580493186124</v>
       </c>
       <c r="AD5" t="n">
-        <v>781361.1197076265</v>
+        <v>848843.6228256964</v>
       </c>
       <c r="AE5" t="n">
-        <v>1069092.75520372</v>
+        <v>1161425.293087786</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.519600951282469e-06</v>
+        <v>3.010609260930897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.77799479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>967060.0431281825</v>
+        <v>1050580.493186124</v>
       </c>
     </row>
   </sheetData>
